--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T14:33:34+00:00</t>
+    <t>2025-12-05T08:38:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:38:20+00:00</t>
+    <t>2025-12-16T16:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-16T16:02:43+00:00</t>
+    <t>2025-12-17T09:55:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="603">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T09:55:45+00:00</t>
+    <t>2025-12-17T14:41:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1518,7 +1518,7 @@
     <t>Inputs are named to enable task automation to bind data and pass it from one task to the next.</t>
   </si>
   <si>
-    <t>Codes to identify types of input parameters.  These will typically be specific to a particular workflow.  E.g. "Comparison source", "Applicable consent", "Concomitent Medications", etc.</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/input-tddui-task-transport-valueset</t>
   </si>
   <si>
     <t>Task.input.value[x]</t>
@@ -2263,7 +2263,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="145.00390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="143.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="112.25" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -9483,13 +9483,11 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y62" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -10187,13 +10185,11 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y68" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y68" s="2"/>
+      <c r="Z68" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -10889,13 +10885,11 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y74" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y74" s="2"/>
+      <c r="Z74" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -11593,13 +11587,11 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y80" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y80" s="2"/>
+      <c r="Z80" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -12297,13 +12289,11 @@
         <v>78</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y86" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y86" s="2"/>
+      <c r="Z86" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>78</v>
@@ -13001,13 +12991,11 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y92" s="2"/>
+      <c r="Z92" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -13705,13 +13693,11 @@
         <v>78</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y98" s="2"/>
+      <c r="Z98" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>78</v>
@@ -14409,13 +14395,11 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y104" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y104" s="2"/>
+      <c r="Z104" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>78</v>
@@ -15113,13 +15097,11 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y110" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y110" s="2"/>
+      <c r="Z110" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>78</v>
@@ -15817,13 +15799,11 @@
         <v>78</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y116" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y116" s="2"/>
+      <c r="Z116" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>78</v>
@@ -16521,13 +16501,11 @@
         <v>78</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y122" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y122" s="2"/>
+      <c r="Z122" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>

--- a/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
+++ b/393-contenu-fhir---gestion-des-slices-remontant-un-warning/ig/StructureDefinition-tddui-task-transport-usager.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:41:39+00:00</t>
+    <t>2025-12-18T10:03:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
